--- a/Wildau/Results.xlsx
+++ b/Wildau/Results.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb3e71f415cf9c71/Desktop/SUMO_Modell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6807FB64-5646-4234-AA08-5011426994C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74859D0E-BBD3-477D-B6F9-71CF0593AFAE}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{6807FB64-5646-4234-AA08-5011426994C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4A05EF-7118-4D5D-B28F-3EF870A7EA97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FEDF08D-2472-424F-8A34-1F08FB5EF1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>Tool</t>
   </si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Netzabdeckung in Prozent </t>
+  </si>
+  <si>
+    <t>SAGA</t>
   </si>
 </sst>
 </file>
@@ -834,6 +834,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3CF5-47C0-8B8C-3A08BD6F0818}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle2!$A$43:$A$47</c:f>
@@ -896,7 +915,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="10"/>
-        <c:overlap val="-27"/>
         <c:axId val="1156451904"/>
         <c:axId val="1359746464"/>
       </c:barChart>
@@ -1013,7 +1031,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1041,7 +1059,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1077,7 +1095,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1103,12 +1121,14 @@
         </c:txPr>
         <c:crossAx val="1156451904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1441,12 +1461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="10"/>
-        <c:overlap val="-27"/>
         <c:axId val="1377961040"/>
         <c:axId val="1377958544"/>
       </c:barChart>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
@@ -1610,7 +1629,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1660,12 +1679,16 @@
         </c:txPr>
         <c:crossAx val="1377961040"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1998,7 +2021,7 @@
         <c:axId val="1222785360"/>
       </c:barChart>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
@@ -2082,8 +2105,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1222791184"/>
-        <c:axId val="1222785360"/>
+        <c:axId val="10663887"/>
+        <c:axId val="10666383"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1222791184"/>
@@ -2200,8 +2223,40 @@
         </c:txPr>
         <c:crossAx val="1222791184"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="10666383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10663887"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="10663887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10666383"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2553,9 +2608,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle2!$A$63:$A$70</c:f>
+              <c:f>Tabelle2!$A$63:$A$71</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>manual</c:v>
                 </c:pt>
@@ -2579,16 +2634,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>randomActivityGen 50.000 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SAGA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$63:$B$70</c:f>
+              <c:f>Tabelle2!$B$63:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>87.41</c:v>
                 </c:pt>
@@ -2612,6 +2670,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,18 +5624,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175251</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>31364</xdr:rowOff>
+      <xdr:rowOff>31365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>579412</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>164472</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24217</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5586,7 +5647,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5604,13 +5665,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338558</xdr:colOff>
+      <xdr:colOff>338557</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>11146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>645368</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15550</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>38878</xdr:rowOff>
     </xdr:to>
@@ -5716,323 +5777,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-      <sheetName val="Tabelle2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>manual</v>
-          </cell>
-          <cell r="B4">
-            <v>5.81</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>routesampler</v>
-          </cell>
-          <cell r="B5">
-            <v>0.14099999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>randomtrips</v>
-          </cell>
-          <cell r="B6">
-            <v>163.16</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>dfrouter</v>
-          </cell>
-          <cell r="B7">
-            <v>253.4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>flowrouter</v>
-          </cell>
-          <cell r="B8">
-            <v>96.44</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>cadyts 99</v>
-          </cell>
-          <cell r="B9">
-            <v>201.1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v xml:space="preserve">randomActivityGen 10.000 </v>
-          </cell>
-          <cell r="B10">
-            <v>314.24</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v xml:space="preserve">randomActivityGen 50.000 </v>
-          </cell>
-          <cell r="B11">
-            <v>309.04000000000002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>sumActivityGen</v>
-          </cell>
-          <cell r="B12">
-            <v>324.39999999999998</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>randomtrips</v>
-          </cell>
-          <cell r="C43">
-            <v>43</v>
-          </cell>
-          <cell r="D43">
-            <v>282</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>cadyts099</v>
-          </cell>
-          <cell r="C44">
-            <v>92</v>
-          </cell>
-          <cell r="D44">
-            <v>282</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>routesampler</v>
-          </cell>
-          <cell r="C45">
-            <v>282</v>
-          </cell>
-          <cell r="D45">
-            <v>282</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>flowrouter</v>
-          </cell>
-          <cell r="C46">
-            <v>282</v>
-          </cell>
-          <cell r="D46">
-            <v>282</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v xml:space="preserve">manual </v>
-          </cell>
-          <cell r="C47">
-            <v>285</v>
-          </cell>
-          <cell r="D47">
-            <v>282</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>randomtrips</v>
-          </cell>
-          <cell r="C49">
-            <v>547</v>
-          </cell>
-          <cell r="D49">
-            <v>390</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>cadyts099</v>
-          </cell>
-          <cell r="C50">
-            <v>677</v>
-          </cell>
-          <cell r="D50">
-            <v>390</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>routesampler</v>
-          </cell>
-          <cell r="C51">
-            <v>390</v>
-          </cell>
-          <cell r="D51">
-            <v>390</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>flowrouter</v>
-          </cell>
-          <cell r="C52">
-            <v>196</v>
-          </cell>
-          <cell r="D52">
-            <v>390</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v xml:space="preserve">manual </v>
-          </cell>
-          <cell r="C53">
-            <v>370</v>
-          </cell>
-          <cell r="D53">
-            <v>390</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>randomtrips</v>
-          </cell>
-          <cell r="C55">
-            <v>204</v>
-          </cell>
-          <cell r="D55">
-            <v>468</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>cadyts099</v>
-          </cell>
-          <cell r="C56">
-            <v>433</v>
-          </cell>
-          <cell r="D56">
-            <v>468</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>routesampler</v>
-          </cell>
-          <cell r="C57">
-            <v>468</v>
-          </cell>
-          <cell r="D57">
-            <v>468</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>flowrouter</v>
-          </cell>
-          <cell r="C58">
-            <v>468</v>
-          </cell>
-          <cell r="D58">
-            <v>468</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v xml:space="preserve">manual </v>
-          </cell>
-          <cell r="C59">
-            <v>477</v>
-          </cell>
-          <cell r="D59">
-            <v>468</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>manual</v>
-          </cell>
-          <cell r="B63">
-            <v>87.41</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>routesampler</v>
-          </cell>
-          <cell r="B64">
-            <v>97.55</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>randomtrips</v>
-          </cell>
-          <cell r="B65">
-            <v>97.73</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>dfrouter</v>
-          </cell>
-          <cell r="B66">
-            <v>59.35</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>flowrouter</v>
-          </cell>
-          <cell r="B67">
-            <v>55.04</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>cadyts 99</v>
-          </cell>
-          <cell r="B68">
-            <v>97.95</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v xml:space="preserve">randomActivityGen 10.000 </v>
-          </cell>
-          <cell r="B69">
-            <v>91.65</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v xml:space="preserve">randomActivityGen 50.000 </v>
-          </cell>
-          <cell r="B70">
-            <v>99.24</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6332,10 +6076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A1D45A-95FD-44E9-9FFB-688CD2E9256A}">
-  <dimension ref="A3:D70"/>
+  <dimension ref="A3:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6739,6 +6483,14 @@
         <v>99.24</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>95.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
